--- a/main/static/records/Prekinder.xlsx
+++ b/main/static/records/Prekinder.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+  <si>
+    <t xml:space="preserve">RFID No.</t>
+  </si>
   <si>
     <t xml:space="preserve">LAST NAME</t>
   </si>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">STUDENT ID NUMBER</t>
   </si>
   <si>
+    <t xml:space="preserve">0006610104</t>
+  </si>
+  <si>
     <t xml:space="preserve">Buenaflor</t>
   </si>
   <si>
@@ -130,10 +136,13 @@
     <t xml:space="preserve">18-0007</t>
   </si>
   <si>
+    <t xml:space="preserve">0006656831</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mendoza</t>
   </si>
   <si>
-    <t xml:space="preserve">Cheencesdee</t>
+    <t xml:space="preserve">Cheencessdee</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -151,6 +160,9 @@
     <t xml:space="preserve">18-0008</t>
   </si>
   <si>
+    <t xml:space="preserve">0006614834</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ong</t>
   </si>
   <si>
@@ -172,6 +184,9 @@
     <t xml:space="preserve">18-0009</t>
   </si>
   <si>
+    <t xml:space="preserve">0006598160</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pamplona</t>
   </si>
   <si>
@@ -211,6 +226,9 @@
     <t xml:space="preserve">18-0011</t>
   </si>
   <si>
+    <t xml:space="preserve">0006597825</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santos</t>
   </si>
   <si>
@@ -230,6 +248,9 @@
   </si>
   <si>
     <t xml:space="preserve">18-0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006595907</t>
   </si>
   <si>
     <t xml:space="preserve">Vargas</t>
@@ -276,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -297,6 +318,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -348,8 +376,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -357,11 +389,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,331 +418,358 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I12"/>
+  <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="80.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="80.8622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="0"/>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="0"/>
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
+      <c r="A5" s="0"/>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="0"/>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
+      <c r="A9" s="0"/>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="0"/>
-      <c r="E9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>62</v>
+      <c r="E9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>75</v>
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>81</v>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/main/static/records/Prekinder.xlsx
+++ b/main/static/records/Prekinder.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t xml:space="preserve">RFID No.</t>
   </si>
@@ -76,6 +76,9 @@
     <t xml:space="preserve">18-0004</t>
   </si>
   <si>
+    <t xml:space="preserve">0006598379</t>
+  </si>
+  <si>
     <t xml:space="preserve">De Castro</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t xml:space="preserve">18-0005</t>
   </si>
   <si>
+    <t xml:space="preserve">0006670399</t>
+  </si>
+  <si>
     <t xml:space="preserve">De La Torre</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t xml:space="preserve">18-0006</t>
   </si>
   <si>
+    <t xml:space="preserve">0006651106</t>
+  </si>
+  <si>
     <t xml:space="preserve">Marquez</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">18-0013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006601474</t>
   </si>
   <si>
     <t xml:space="preserve">Yaco</t>
@@ -420,22 +432,22 @@
   </sheetPr>
   <dimension ref="1:12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3:H12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="80.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="79.9132653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,278 +510,286 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0"/>
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0"/>
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0"/>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
